--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -64,12 +67,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -79,127 +82,136 @@
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>baking</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
@@ -208,37 +220,34 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>good</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>well</t>
+    <t>last</t>
   </si>
   <si>
     <t>recommend</t>
@@ -253,34 +262,31 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -650,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.967741935483871</v>
@@ -769,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K4">
-        <v>0.9310344827586207</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3798449612403101</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>0.890625</v>
@@ -869,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2929292929292929</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,21 +917,45 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>63</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0.8478260869565217</v>
@@ -968,16 +998,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,21 +1019,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L10">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6530612244897959</v>
+        <v>0.65625</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,47 +1149,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="L15">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>25</v>
-      </c>
-      <c r="K15">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L15">
-        <v>801</v>
-      </c>
-      <c r="M15">
-        <v>801</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1176,16 +1206,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>781</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>781</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6103896103896104</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="L19">
         <v>29</v>
       </c>
-      <c r="K19">
-        <v>0.59375</v>
-      </c>
-      <c r="L19">
-        <v>38</v>
-      </c>
       <c r="M19">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5714285714285714</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5692307692307692</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5641025641025641</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5614035087719298</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5526315789473685</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,12 +1461,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>0.5480769230769231</v>
@@ -1462,16 +1492,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5441176470588235</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5269461077844312</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L29">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5142857142857142</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5128205128205128</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5060240963855421</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,15 +1669,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.4923076923076923</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L35">
         <v>32</v>
@@ -1665,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4516129032258064</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1691,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.45</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1717,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1743,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4397590361445783</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L39">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1769,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4135338345864661</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1795,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.4078947368421053</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1821,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.3823529411764706</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1847,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.3666666666666666</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1873,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.3650793650793651</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1899,15 +1929,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.360655737704918</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L45">
         <v>22</v>
@@ -1925,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.3553921568627451</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L46">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M46">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1951,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3463035019455253</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L47">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M47">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1977,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3366336633663367</v>
+        <v>0.3164383561643835</v>
       </c>
       <c r="L48">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2003,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>67</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3315068493150685</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L49">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2029,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>488</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3178807947019868</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2055,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.3063063063063063</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2081,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3055555555555556</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2107,15 +2137,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.302158273381295</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L53">
         <v>42</v>
@@ -2133,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.2932330827067669</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2159,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2792792792792793</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2185,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2679425837320574</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L56">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2211,47 +2241,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.2410714285714286</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L57">
         <v>27</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2335844994617869</v>
+        <v>0.2411194833153929</v>
       </c>
       <c r="L58">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M58">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2263,47 +2293,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2285714285714286</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2013422818791946</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2315,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1912225705329154</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L61">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="M61">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2341,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>258</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1907284768211921</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L62">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2367,47 +2397,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>611</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1890243902439024</v>
+        <v>0.1946222791293214</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>133</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1854219948849105</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L64">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="M64">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2419,99 +2449,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>637</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1621621621621622</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L65">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>310</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1444444444444444</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L66">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>231</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1312649164677804</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L67">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M67">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>364</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.125</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L68">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M68">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2523,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>385</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1242937853107345</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2549,21 +2579,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>155</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1237113402061856</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L70">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M70">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2575,21 +2605,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>255</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1184210526315789</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L71">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2601,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>402</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1182266009852217</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2627,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>179</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1094890510948905</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L73">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2653,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1092436974789916</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2679,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1037037037037037</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2705,21 +2735,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>0.07462686567164178</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L76">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2731,47 +2761,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>992</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77">
-        <v>0.07377049180327869</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L77">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>339</v>
+        <v>993</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.06743185078909612</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L78">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M78">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N78">
         <v>0.98</v>
@@ -2783,85 +2813,111 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>0.05175600739371534</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>513</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K80">
-        <v>0.05</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K81">
-        <v>0.04415584415584416</v>
+        <v>0.05</v>
       </c>
       <c r="L81">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1104</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L82">
+        <v>42</v>
+      </c>
+      <c r="M82">
+        <v>44</v>
+      </c>
+      <c r="N82">
+        <v>0.95</v>
+      </c>
+      <c r="O82">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
